--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="600">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t xml:space="preserve">Graphics Section, American Statistical Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emily Robinson</t>
   </si>
   <si>
     <t xml:space="preserve">Fellowship</t>
@@ -1483,9 +1486,6 @@
     <t xml:space="preserve">Rapid quality control tools for confocal microscopy scans</t>
   </si>
   <si>
-    <t xml:space="preserve">Emily Robinson</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perception of Log Scales</t>
   </si>
   <si>
@@ -1712,12 +1712,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ad-Hoc Committee on EM 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workshop Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNL REU </t>
   </si>
   <si>
     <t xml:space="preserve">journal</t>
@@ -1977,71 +1971,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2125,7 +2119,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="A22:F23 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2158,7 +2152,8 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="b">
+      <c r="B2" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -2180,7 +2175,8 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
@@ -2202,7 +2198,8 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C4" s="3" t="n">
@@ -2299,14 +2296,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -2315,16 +2312,16 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2333,22 +2330,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2357,22 +2354,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2381,22 +2378,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2405,22 +2402,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2429,22 +2426,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,22 +2449,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,22 +2472,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,22 +2495,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -2535,20 +2532,20 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2563,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2588,12 +2585,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A22:F23 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,18 +2636,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2662,15 +2659,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2685,13 +2682,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,13 +2708,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,21 +2734,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2763,15 +2760,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2786,18 +2783,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2809,10 +2806,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,7 +2820,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2020</v>
@@ -2832,7 +2829,7 @@
         <v>2022</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>479</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>480</v>
@@ -2849,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2020</v>
@@ -2872,7 +2869,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2020</v>
@@ -2907,13 +2904,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2021</v>
@@ -2941,13 +2938,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2021</v>
@@ -2973,7 +2970,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2021</v>
@@ -2996,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2022</v>
@@ -3019,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2022</v>
@@ -3042,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2022</v>
@@ -3068,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2021</v>
@@ -3091,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2023</v>
@@ -3114,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2023</v>
@@ -3137,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2023</v>
@@ -3171,7 +3168,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3181,7 +3178,7 @@
         <v>505</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>506</v>
@@ -3290,10 +3287,10 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="A22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3306,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -3321,14 +3318,14 @@
         <v>515</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3342,7 +3339,7 @@
         <v>517</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>518</v>
@@ -3352,7 +3349,7 @@
       <c r="A3" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3376,7 +3373,7 @@
       <c r="A4" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3401,9 +3398,9 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="5" t="b">
+        <v>289</v>
+      </c>
+      <c r="B5" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3430,7 +3427,7 @@
       <c r="A6" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3451,7 +3448,7 @@
       <c r="A7" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3465,7 +3462,7 @@
         <v>530</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>518</v>
@@ -3475,7 +3472,7 @@
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3494,9 +3491,9 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="5" t="b">
+        <v>289</v>
+      </c>
+      <c r="B9" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>533</v>
@@ -3520,7 +3517,7 @@
       <c r="A10" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3544,7 +3541,7 @@
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3563,9 +3560,9 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="5" t="b">
+        <v>289</v>
+      </c>
+      <c r="B12" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3592,7 +3589,7 @@
       <c r="A13" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3614,9 +3611,9 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="5" t="b">
+        <v>289</v>
+      </c>
+      <c r="B14" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3637,7 +3634,7 @@
       <c r="A15" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B15" s="5" t="b">
+      <c r="B15" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3658,7 +3655,7 @@
       <c r="A16" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B16" s="5" t="b">
+      <c r="B16" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3682,7 +3679,7 @@
       <c r="A17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="5" t="b">
+      <c r="B17" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3696,7 +3693,7 @@
         <v>550</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>518</v>
@@ -3706,7 +3703,7 @@
       <c r="A18" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="5" t="b">
+      <c r="B18" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3730,7 +3727,7 @@
       <c r="A19" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="5" t="b">
+      <c r="B19" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3754,7 +3751,7 @@
       <c r="A20" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B20" s="5" t="b">
+      <c r="B20" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3768,7 +3765,7 @@
         <v>554</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>518</v>
@@ -3778,7 +3775,7 @@
       <c r="A21" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B21" s="5" t="b">
+      <c r="B21" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3799,25 +3796,12 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B22" s="5" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>557</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3838,17 +3822,17 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,7 +3856,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3864,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3872,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,7 +3880,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,7 +3888,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,7 +3896,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3904,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3912,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +3920,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,7 +3928,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,7 +3936,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +3944,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,7 +3960,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +3998,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4024,26 +4008,26 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>572</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4054,14 +4038,14 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4072,14 +4056,14 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4090,14 +4074,14 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4108,11 +4092,11 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4123,10 +4107,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4132,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4161,37 +4145,37 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>2023</v>
@@ -4200,13 +4184,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4214,12 +4198,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>2022</v>
@@ -4228,13 +4212,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4242,12 +4226,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>2022</v>
@@ -4256,13 +4240,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4270,12 +4254,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>2022</v>
@@ -4284,13 +4268,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4298,12 +4282,12 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>2021</v>
@@ -4312,13 +4296,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4327,12 +4311,12 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>2021</v>
@@ -4341,13 +4325,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4356,12 +4340,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>2021</v>
@@ -4370,13 +4354,13 @@
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4385,12 +4369,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>2020</v>
@@ -4399,16 +4383,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4546,7 +4530,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4635,7 +4619,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A22:F23 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4691,14 +4675,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4743,14 +4727,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4791,14 +4775,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4843,14 +4827,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4895,14 +4879,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4947,14 +4931,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4999,14 +4983,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5047,14 +5031,15 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="1" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
@@ -5074,14 +5059,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5102,14 +5087,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5145,12 +5130,12 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,7 +5183,7 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5220,7 +5205,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5239,7 +5224,7 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5261,7 +5246,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5277,7 +5262,7 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5299,7 +5284,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5318,7 +5303,7 @@
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5340,7 +5325,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5361,7 +5346,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5383,7 +5368,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5398,7 +5383,7 @@
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5420,7 +5405,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5438,7 +5423,7 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5460,7 +5445,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5478,7 +5463,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5500,7 +5485,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5509,7 +5494,7 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5531,7 +5516,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5543,7 +5528,7 @@
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5565,7 +5550,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5574,7 +5559,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5596,7 +5581,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5605,7 +5590,7 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5618,7 +5603,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5627,13 +5612,13 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5654,7 +5639,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5723,8 +5708,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A22:F23 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5756,13 +5741,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="8" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5778,16 +5764,19 @@
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="8" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5805,14 +5794,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="6" t="b">
+        <v>114</v>
+      </c>
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5823,22 +5812,22 @@
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="6" t="b">
+        <v>114</v>
+      </c>
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5849,7 +5838,7 @@
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -5857,14 +5846,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="6" t="b">
+        <v>118</v>
+      </c>
+      <c r="C6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5875,7 +5864,7 @@
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -5883,14 +5872,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="6" t="b">
+        <v>118</v>
+      </c>
+      <c r="C7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5901,22 +5890,22 @@
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="6" t="b">
+        <v>118</v>
+      </c>
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5927,7 +5916,7 @@
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -5935,14 +5924,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="6" t="b">
+        <v>118</v>
+      </c>
+      <c r="C9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5953,7 +5942,7 @@
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -5961,14 +5950,14 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="6" t="b">
+        <v>118</v>
+      </c>
+      <c r="C10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5979,7 +5968,7 @@
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -5987,14 +5976,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="8" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="6" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6005,7 +5994,7 @@
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6109,62 +6098,62 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2019</v>
@@ -6173,71 +6162,71 @@
         <v>2021</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2018</v>
@@ -6246,15 +6235,15 @@
         <v>2020</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2018</v>
@@ -6263,15 +6252,15 @@
         <v>2021</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2013</v>
@@ -6280,7 +6269,7 @@
         <v>2015</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6316,19 +6305,19 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G12" activeCellId="1" sqref="A22:F23 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="113.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="68.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="113.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -6337,31 +6326,31 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,28 +6358,28 @@
         <v>41493</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6398,31 +6387,31 @@
         <v>41789</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6430,34 +6419,34 @@
         <v>41855</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,37 +6454,37 @@
         <v>41855</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,37 +6492,37 @@
         <v>42226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,28 +6530,28 @@
         <v>42226</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,37 +6559,37 @@
         <v>42583</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,31 +6597,31 @@
         <v>42949</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,34 +6629,34 @@
         <v>43237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6675,37 +6664,37 @@
         <v>43313</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,37 +6702,37 @@
         <v>43677</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,34 +6740,34 @@
         <v>43842</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,34 +6775,34 @@
         <v>43872</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,34 +6810,34 @@
         <v>43901</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6856,37 +6845,37 @@
         <v>44041</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,34 +6883,34 @@
         <v>44223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,31 +6918,31 @@
         <v>44232</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6961,34 +6950,34 @@
         <v>44271</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,37 +6985,37 @@
         <v>44285</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,37 +7023,37 @@
         <v>44295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,37 +7061,37 @@
         <v>44363</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,31 +7099,31 @@
         <v>44399</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,37 +7131,37 @@
         <v>44417</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,37 +7169,37 @@
         <v>44600</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,33 +7207,33 @@
         <v>44644</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7252,37 +7241,37 @@
         <v>44659</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,28 +7279,28 @@
         <v>44775</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,34 +7308,34 @@
         <v>44776</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7354,37 +7343,37 @@
         <v>44826</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,37 +7381,37 @@
         <v>44839</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7430,34 +7419,34 @@
         <v>44972</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,34 +7454,34 @@
         <v>45012</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,34 +7489,34 @@
         <v>45146</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,37 +7524,37 @@
         <v>45211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,34 +7562,34 @@
         <v>45239</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,37 +7597,37 @@
         <v>45266</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7646,31 +7635,31 @@
         <v>45274</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,31 +7667,31 @@
         <v>45300</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,37 +7699,37 @@
         <v>45330</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7748,37 +7737,37 @@
         <v>45337</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -7874,46 +7863,46 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A22:F23 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7921,22 +7910,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -7950,25 +7939,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -7982,22 +7971,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8011,25 +8000,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8043,22 +8032,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8072,25 +8061,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8104,22 +8093,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8133,22 +8122,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8162,25 +8151,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8194,22 +8183,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8223,25 +8212,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8255,25 +8244,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8287,25 +8276,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8319,25 +8308,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8351,22 +8340,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8374,25 +8363,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,25 +8389,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -1966,7 +1966,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1988,6 +1988,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1995,12 +1999,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2119,7 +2123,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="A22:F23 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2296,7 +2300,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,7 +2330,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2350,7 +2354,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2374,7 +2378,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2398,7 +2402,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2532,7 +2536,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2585,12 +2589,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A22:F23 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3172,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3211,10 +3215,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="17" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3228,10 +3232,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="17" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3245,10 +3249,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="18" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3262,7 +3266,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="17" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3288,9 +3292,9 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="A22:F23"/>
+      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3325,7 +3329,7 @@
       <c r="A2" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B2" s="8" t="b">
+      <c r="B2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3349,7 +3353,7 @@
       <c r="A3" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="8" t="b">
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3373,7 +3377,7 @@
       <c r="A4" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="8" t="b">
+      <c r="B4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3400,7 +3404,7 @@
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="8" t="b">
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3427,7 +3431,7 @@
       <c r="A6" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="8" t="b">
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3448,7 +3452,7 @@
       <c r="A7" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="8" t="b">
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3472,7 +3476,7 @@
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B8" s="8" t="b">
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3493,7 +3497,7 @@
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="8" t="b">
+      <c r="B9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3517,7 +3521,7 @@
       <c r="A10" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B10" s="8" t="b">
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3541,7 +3545,7 @@
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B11" s="8" t="b">
+      <c r="B11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3562,7 +3566,7 @@
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="8" t="b">
+      <c r="B12" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3589,7 +3593,7 @@
       <c r="A13" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="8" t="b">
+      <c r="B13" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3613,7 +3617,7 @@
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="8" t="b">
+      <c r="B14" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="A15" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B15" s="8" t="b">
+      <c r="B15" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3655,7 +3659,7 @@
       <c r="A16" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B16" s="8" t="b">
+      <c r="B16" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3679,7 +3683,7 @@
       <c r="A17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="8" t="b">
+      <c r="B17" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3703,7 +3707,7 @@
       <c r="A18" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="8" t="b">
+      <c r="B18" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3727,7 +3731,7 @@
       <c r="A19" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="8" t="b">
+      <c r="B19" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3751,7 +3755,7 @@
       <c r="A20" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B20" s="8" t="b">
+      <c r="B20" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3771,11 +3775,11 @@
         <v>518</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B21" s="1" t="b">
+      <c r="B21" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3822,7 +3826,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3998,7 +4002,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4027,7 +4031,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4045,7 +4049,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4063,7 +4067,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4081,7 +4085,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4096,7 +4100,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4132,7 +4136,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4170,17 +4174,17 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="10" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4198,17 +4202,17 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4226,17 +4230,17 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4254,17 +4258,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4282,17 +4286,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4311,17 +4315,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4340,17 +4344,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4369,17 +4373,17 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="10" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="10" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4530,7 +4534,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4619,7 +4623,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A22:F23 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4675,14 +4679,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4727,14 +4731,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4775,14 +4779,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4827,14 +4831,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4879,14 +4883,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4931,14 +4935,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4983,14 +4987,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5031,14 +5035,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5059,14 +5063,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5087,14 +5091,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5130,12 +5134,12 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,7 +5187,7 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5205,7 +5209,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5224,7 +5228,7 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5246,7 +5250,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5262,7 +5266,7 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="I4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5303,7 +5307,7 @@
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5325,7 +5329,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5346,7 +5350,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5368,7 +5372,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="I6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5383,7 +5387,7 @@
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5405,7 +5409,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="I7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5423,7 +5427,7 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5445,7 +5449,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="I8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5463,7 +5467,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5485,7 +5489,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="1" t="b">
+      <c r="I9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5494,7 +5498,7 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5516,7 +5520,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="1" t="b">
+      <c r="I10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5528,7 +5532,7 @@
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5550,7 +5554,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="I11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5559,7 +5563,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5581,7 +5585,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="I12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5590,7 +5594,7 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5603,7 +5607,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5612,13 +5616,13 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="1" t="b">
+      <c r="I13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5639,7 +5643,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5709,7 +5713,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A22:F23 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5741,21 +5745,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5764,26 +5768,26 @@
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="10" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="10" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -5794,21 +5798,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -5820,21 +5824,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -5846,21 +5850,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5872,21 +5876,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5898,21 +5902,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="10" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -5924,21 +5928,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5950,21 +5954,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="10" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -5976,21 +5980,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="10" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6026,7 +6030,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,7 +6069,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6075,7 +6079,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6098,7 +6102,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A22:F23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6130,7 +6134,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6144,7 +6148,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6161,7 +6165,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6175,7 +6179,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6189,7 +6193,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6203,7 +6207,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6217,7 +6221,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6234,7 +6238,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6251,7 +6255,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6268,7 +6272,7 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6305,14 +6309,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G12" activeCellId="1" sqref="A22:F23 G12"/>
+      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="68.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="113.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="68.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="113.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,13 +6408,13 @@
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6439,13 +6443,13 @@
       <c r="H4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6474,16 +6478,16 @@
       <c r="H5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6515,13 +6519,13 @@
       <c r="I6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6579,16 +6583,16 @@
       <c r="H8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6646,16 +6650,16 @@
       <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6687,13 +6691,13 @@
       <c r="I11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6725,13 +6729,13 @@
       <c r="I12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>230</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6760,13 +6764,13 @@
       <c r="I13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="12" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6795,13 +6799,13 @@
       <c r="H14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>244</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6830,13 +6834,13 @@
       <c r="H15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="12" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6868,13 +6872,13 @@
       <c r="I16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="12" t="s">
         <v>260</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6903,13 +6907,13 @@
       <c r="H17" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="15" t="s">
         <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="12" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6935,13 +6939,13 @@
       <c r="H18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="15" t="s">
         <v>272</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6970,13 +6974,13 @@
       <c r="H19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="15" t="s">
         <v>277</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="12" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7008,13 +7012,13 @@
       <c r="I20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="12" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7046,13 +7050,13 @@
       <c r="I21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="15" t="s">
         <v>292</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="12" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7084,13 +7088,13 @@
       <c r="I22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="15" t="s">
         <v>301</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="12" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7116,13 +7120,13 @@
       <c r="H23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="15" t="s">
         <v>306</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="12" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7154,13 +7158,13 @@
       <c r="I24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="15" t="s">
         <v>311</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="12" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7192,13 +7196,13 @@
       <c r="I25" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>315</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="12" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7226,13 +7230,13 @@
         <v>258</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="12" t="s">
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="12" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7264,13 +7268,13 @@
       <c r="I27" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>328</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="12" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7328,13 +7332,13 @@
       <c r="I29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="12" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7366,13 +7370,13 @@
       <c r="I30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>342</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="12" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7404,13 +7408,13 @@
       <c r="I31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>347</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7442,7 +7446,7 @@
       <c r="I32" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="12" t="s">
         <v>353</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -7474,13 +7478,13 @@
       <c r="H33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="12" t="s">
         <v>356</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="12" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7509,13 +7513,13 @@
       <c r="H34" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="12" t="s">
         <v>361</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="12" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7547,13 +7551,13 @@
       <c r="I35" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="12" t="s">
         <v>367</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="12" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7582,13 +7586,13 @@
       <c r="I36" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="12" t="s">
         <v>375</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="12" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7620,13 +7624,13 @@
       <c r="I37" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="12" t="s">
         <v>384</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="12" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7652,13 +7656,13 @@
       <c r="H38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="12" t="s">
         <v>389</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="12" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7687,7 +7691,7 @@
       <c r="I39" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="12" t="s">
         <v>396</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -7722,13 +7726,13 @@
       <c r="I40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="12" t="s">
         <v>400</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="12" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7757,16 +7761,16 @@
       <c r="H41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="12" t="s">
         <v>405</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="12" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7863,14 +7867,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="A22:F23 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,7 +7960,7 @@
       <c r="G3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>425</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -8017,7 +8021,7 @@
       <c r="G5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>425</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -8078,7 +8082,7 @@
       <c r="G7" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>425</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8168,7 +8172,7 @@
       <c r="G10" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>435</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -8229,7 +8233,7 @@
       <c r="G12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>437</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -8261,7 +8265,7 @@
       <c r="G13" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>439</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -8293,7 +8297,7 @@
       <c r="G14" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="12" t="s">
         <v>425</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -8325,7 +8329,7 @@
       <c r="G15" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="12" t="s">
         <v>440</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -8380,7 +8384,7 @@
       <c r="G17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="12" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8406,7 +8410,7 @@
       <c r="G18" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>439</v>
       </c>
     </row>
